--- a/Apuntes/General/Recursos links.xlsx
+++ b/Apuntes/General/Recursos links.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$E$35</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="115">
   <si>
     <t>Nombre</t>
   </si>
@@ -76,9 +79,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://feathericons.com/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS DISEÑO </t>
   </si>
   <si>
     <t xml:space="preserve">Heroicons </t>
@@ -818,883 +818,875 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.85546875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="5" width="56.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2"/>
-    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="85.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>103</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="5"/>
+        <v>42</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>36</v>
+      </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>19</v>
+      </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>64</v>
+      </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>114</v>
+      </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>14</v>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="3">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="3">
-        <v>4</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="G32" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="3">
-        <v>5</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="3">
-        <v>3</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="3">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="3">
-        <v>3</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="B1:E35">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Recurso"/>
+        <filter val="Recursos"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="iconos"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="B15:E33">
+      <sortCondition descending="1" ref="D1:D35"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
-    <hyperlink ref="G6" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="G3" r:id="rId6"/>
-    <hyperlink ref="G9" r:id="rId7"/>
-    <hyperlink ref="G10" r:id="rId8"/>
-    <hyperlink ref="G11" r:id="rId9"/>
-    <hyperlink ref="G12" r:id="rId10"/>
-    <hyperlink ref="G13" r:id="rId11"/>
-    <hyperlink ref="G14" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId1"/>
+    <hyperlink ref="G26" r:id="rId2"/>
+    <hyperlink ref="G29" r:id="rId3"/>
+    <hyperlink ref="G23" r:id="rId4"/>
+    <hyperlink ref="G33" r:id="rId5"/>
+    <hyperlink ref="G28" r:id="rId6"/>
+    <hyperlink ref="G22" r:id="rId7"/>
+    <hyperlink ref="G20" r:id="rId8"/>
+    <hyperlink ref="G27" r:id="rId9"/>
+    <hyperlink ref="G16" r:id="rId10"/>
+    <hyperlink ref="G25" r:id="rId11"/>
+    <hyperlink ref="G24" r:id="rId12"/>
     <hyperlink ref="G15" r:id="rId13"/>
-    <hyperlink ref="G16" r:id="rId14"/>
-    <hyperlink ref="G17" r:id="rId15"/>
-    <hyperlink ref="G18" r:id="rId16"/>
-    <hyperlink ref="G21" r:id="rId17"/>
-    <hyperlink ref="G22" r:id="rId18"/>
-    <hyperlink ref="G23" r:id="rId19"/>
-    <hyperlink ref="G24" r:id="rId20"/>
-    <hyperlink ref="G25" r:id="rId21"/>
-    <hyperlink ref="G26" r:id="rId22"/>
-    <hyperlink ref="G27" r:id="rId23"/>
-    <hyperlink ref="G28" r:id="rId24"/>
-    <hyperlink ref="G29" r:id="rId25"/>
-    <hyperlink ref="G30" r:id="rId26"/>
-    <hyperlink ref="G31" r:id="rId27"/>
-    <hyperlink ref="G32" r:id="rId28"/>
-    <hyperlink ref="G33" r:id="rId29"/>
-    <hyperlink ref="G34" r:id="rId30"/>
-    <hyperlink ref="G35" r:id="rId31"/>
+    <hyperlink ref="G30" r:id="rId14"/>
+    <hyperlink ref="G32" r:id="rId15"/>
+    <hyperlink ref="G5" r:id="rId16"/>
+    <hyperlink ref="G3" r:id="rId17"/>
+    <hyperlink ref="G21" r:id="rId18"/>
+    <hyperlink ref="G10" r:id="rId19"/>
+    <hyperlink ref="G6" r:id="rId20"/>
+    <hyperlink ref="G8" r:id="rId21"/>
+    <hyperlink ref="G9" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="G7" r:id="rId24"/>
+    <hyperlink ref="G11" r:id="rId25"/>
+    <hyperlink ref="G2" r:id="rId26"/>
+    <hyperlink ref="G34" r:id="rId27"/>
+    <hyperlink ref="G14" r:id="rId28"/>
+    <hyperlink ref="G4" r:id="rId29"/>
+    <hyperlink ref="G31" r:id="rId30"/>
+    <hyperlink ref="G19" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>

--- a/Apuntes/General/Recursos links.xlsx
+++ b/Apuntes/General/Recursos links.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$E$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
   <si>
     <t>Nombre</t>
   </si>
@@ -456,12 +456,39 @@
   <si>
     <t xml:space="preserve">https://freefrontend.com/css-sliders/ </t>
   </si>
+  <si>
+    <t>https://codepen.io/</t>
+  </si>
+  <si>
+    <t>cosas con css y html animaciones y tal</t>
+  </si>
+  <si>
+    <t>no se</t>
+  </si>
+  <si>
+    <t>animaciones</t>
+  </si>
+  <si>
+    <t>Codepen</t>
+  </si>
+  <si>
+    <t>Nieve</t>
+  </si>
+  <si>
+    <t>animacion nieve cayendo</t>
+  </si>
+  <si>
+    <t>Codepen Nieve</t>
+  </si>
+  <si>
+    <t>https://codepen.io/OscarDominguez/pen/yeYYLx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +500,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -514,6 +549,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,10 +857,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1591,7 +1629,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -1614,7 +1652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
@@ -1637,9 +1675,67 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:E35">
+  <autoFilter ref="B1:E38">
     <filterColumn colId="0">
       <filters>
         <filter val="Recurso"/>
@@ -1687,9 +1783,11 @@
     <hyperlink ref="G4" r:id="rId29"/>
     <hyperlink ref="G31" r:id="rId30"/>
     <hyperlink ref="G19" r:id="rId31"/>
+    <hyperlink ref="G36" r:id="rId32"/>
+    <hyperlink ref="G38" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 

--- a/Apuntes/General/Recursos links.xlsx
+++ b/Apuntes/General/Recursos links.xlsx
@@ -860,8 +860,8 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
@@ -1269,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
@@ -1433,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
